--- a/biology/Zoologie/Diasporus_diastema/Diasporus_diastema.xlsx
+++ b/biology/Zoologie/Diasporus_diastema/Diasporus_diastema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diasporus diastema est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diasporus diastema est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Panama, au Costa Rica, au Nicaragua et au Honduras du niveau de la mer jusqu'à 1 620 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Panama, au Costa Rica, au Nicaragua et au Honduras du niveau de la mer jusqu'à 1 620 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles étudiés par Hertz, Hauenschild, Lotzkat et Köhler en 2012 mesurent de 15,9 à 22,1 mm et les femelles de 15,0 à 23,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles étudiés par Hertz, Hauenschild, Lotzkat et Köhler en 2012 mesurent de 15,9 à 22,1 mm et les femelles de 15,0 à 23,5 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1875 "1876" : On the Batrachia and Reptilia collected by Dr John M. Bransford during the Nicaraguan Canal Survey of 1874. Journal of the Academy of Natural Sciences of Philadelphia, sér. 2, vol. 8, p. 155–157 (texte intégral).</t>
         </is>
